--- a/kpi_tech.xlsx
+++ b/kpi_tech.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Documents/Masterthesis/03.19/von Ding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Documents/Masterthesis/thesis_xixi/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,700 +1071,700 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10">
         <f>C3+1</f>
         <v>0.9821428571428571</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ref="D16:P16" si="0">D3+1</f>
+      <c r="D16" s="10">
+        <f>D3+1</f>
         <v>0.97340425531914898</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
+        <f t="shared" ref="E16:P16" si="0">E3</f>
+        <v>-2.6595744680851019E-2</v>
+      </c>
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>0.97340425531914898</v>
-      </c>
-      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
+        <v>-2.6595744680851019E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:D27" si="1">C4+1</f>
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.89074803149606296</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:P17" si="2">E4</f>
+        <v>-0.10925196850393704</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.10853478046373954</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.92561983471074383</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.91321897073662972</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:P18" si="3">E5</f>
+        <v>-8.678102926337028E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="3"/>
+        <v>-8.5526315789473673E-2</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.97340425531914898</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
+      <c r="D19" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="0"/>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:P19" si="4">E6</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.87064676616915426</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" ref="E20:P20" si="5">E7</f>
+        <v>-0.12935323383084574</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.12843578210894557</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="11">
-        <f t="shared" si="0"/>
+      <c r="D21" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" si="0"/>
+      <c r="E21" s="10">
+        <f t="shared" ref="E21:P21" si="6">E8</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.95726495726495731</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.94467640918580376</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:P22" si="7">E9</f>
+        <v>-5.5323590814196244E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="7"/>
+        <v>-5.392670157068058E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
+      <c r="D23" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" si="0"/>
+      <c r="E23" s="10">
+        <f t="shared" ref="E23:P23" si="8">E10</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="8"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="8"/>
+        <v>-0.22727272727272729</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.92346938775510201</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" ref="E24:P24" si="9">E11</f>
+        <v>-7.6530612244897989E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="9"/>
+        <v>-7.6647930505876372E-2</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P16" s="12">
-        <f t="shared" si="0"/>
+      <c r="D25" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="13">
-        <f t="shared" ref="C17:P17" si="1">C4+1</f>
-        <v>0.91803278688524592</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.89074803149606296</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.89074803149606296</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.89146521953626046</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:P25" si="10">E12</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="10"/>
+        <v>-0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.95726495726495731</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.93782383419689119</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26:P26" si="11">E13</f>
+        <v>-6.2176165803108807E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.625</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="11"/>
+        <v>-5.9833506763787736E-2</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="D27" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="13">
-        <f t="shared" ref="C18:P18" si="2">C5+1</f>
-        <v>0.92561983471074383</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91321897073662972</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91321897073662972</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91447368421052633</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="13">
-        <f t="shared" ref="C19:P19" si="3">C6+1</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="13">
-        <f t="shared" ref="C20:P20" si="4">C7+1</f>
-        <v>0.9145299145299145</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.87064676616915426</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.87064676616915426</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.87156421789105443</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="13">
-        <f t="shared" ref="C21:P21" si="5">C8+1</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="13">
-        <f t="shared" ref="C22:P22" si="6">C9+1</f>
-        <v>0.95726495726495731</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="6"/>
-        <v>0.94467640918580376</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
-        <v>0.94467640918580376</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="6"/>
-        <v>0.94607329842931942</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="13">
-        <f t="shared" ref="C23:P23" si="7">C10+1</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="7"/>
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C24" s="13">
-        <f t="shared" ref="C24:P24" si="8">C11+1</f>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="8"/>
-        <v>0.92346938775510201</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="8"/>
-        <v>0.92346938775510201</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="8"/>
-        <v>0.92335206949412363</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C25" s="13">
-        <f t="shared" ref="C25:P25" si="9">C12+1</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="9"/>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="13">
-        <f t="shared" ref="C26:P26" si="10">C13+1</f>
-        <v>0.95726495726495731</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.93782383419689119</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.93782383419689119</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.94016649323621226</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.8</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="14">
-        <f t="shared" ref="C27:P27" si="11">C14+1</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" si="11"/>
-        <v>0.41169590643274856</v>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:P27" si="12">E14</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.58830409356725144</v>
       </c>
     </row>
   </sheetData>
